--- a/tests/openbis_functions/test_files/filled_out_sheet.xlsx
+++ b/tests/openbis_functions/test_files/filled_out_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckujath\vm_sync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EAAC0-D4A1-4A27-A306-5C288C999A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8631F60C-7046-46BF-AAF0-639AE7DD70F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12705" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12855" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>Also testing</t>
   </si>
   <si>
-    <t>TESTING_SAMPLE_NAME_PYTEST_DO_NOT_DELETE</t>
+    <t>PYTEST_SAMPLE</t>
   </si>
 </sst>
 </file>
